--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AFAB9-90DD-4EEC-80C2-D460035AC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC872B-C441-49D8-9F6F-D86C0F0FA9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
-    <sheet name="多语言原理" sheetId="2" r:id="rId2"/>
+    <sheet name="多语言实现方式" sheetId="2" r:id="rId2"/>
+    <sheet name="实现原理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -98,12 +99,184 @@
     <t>走配置文件StringTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FInternationalization::ForUseOnlyByLocMacroAndGraphNodeTextLiterals_CreateText(TEXT(InTextLiteral), TEXT(InNamespace), TEXT(InKey))</t>
+  </si>
+  <si>
+    <t>FText FInternationalization::ForUseOnlyByLocMacroAndGraphNodeTextLiterals_CreateText(const TCHAR* InTextLiteral, const TCHAR* InNamespace, const TCHAR* InKey)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return FTextCache::Get().FindOrCache(InTextLiteral, InNamespace, InKey);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>#define NSLOCTEXT(InNamespace, InKey, InTextLiteral)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLOCTEXT</t>
+  </si>
+  <si>
+    <t>FText FTextCache::FindOrCache(const TCHAR* InTextLiteral, const TCHAR* InNamespace, const TCHAR* InKey)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText NewText = FText(InTextLiteral, TextId.GetNamespace(), TextId.GetKey(), ETextFlag::Immutable);</t>
+  </si>
+  <si>
+    <t>return NewText;</t>
+  </si>
+  <si>
+    <t>!!!注意这个构造方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先查询Cache，Cache有则直接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache没有则创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText::FText( FString&amp;&amp; InSourceString, const FTextKey&amp; InNamespace, const FTextKey&amp; InKey, uint32 InFlags )</t>
+  </si>
+  <si>
+    <t>: TextData(new TLocalizedTextData&lt;FTextHistory_Base&gt;(FTextLocalizationManager::Get().GetDisplayString(InNamespace, InKey, &amp;InSourceString)))</t>
+  </si>
+  <si>
+    <t>, Flags(InFlags)</t>
+  </si>
+  <si>
+    <t>TextData-&gt;SetTextHistory(FTextHistory_Base(MoveTemp(InSourceString)));</t>
+  </si>
+  <si>
+    <t>！！！注意看这个构造方式！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLocalizedTextData</t>
+  </si>
+  <si>
+    <t>FTextHistory_Base</t>
+  </si>
+  <si>
+    <t>FTextLocalizationManager::Get().GetDisplayString(InNamespace, InKey, &amp;InSourceString)</t>
+  </si>
+  <si>
+    <t>多语言基本可以认为两种方式：1是代码里面写死，然后扫描      2是使用Stringtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLOCTEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在FTextLocalizationManager里面存在大量的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextLocalizationManager::OnCultureChanged()监听了语言发生变化的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FEngineLoop::AppInit( )</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("BeginInitTextLocalization");</t>
+  </si>
+  <si>
+    <t>BeginInitTextLocalization();</t>
+  </si>
+  <si>
+    <t>…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个函数里面设置FTextLocalizationManager监听了语言变化的回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void BeginInitTextLocalization()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::Localization);</t>
+  </si>
+  <si>
+    <t>DECLARE_SCOPE_CYCLE_COUNTER(TEXT("BeginInitTextLocalization"), STAT_BeginInitTextLocalization, STATGROUP_LoadTime);</t>
+  </si>
+  <si>
+    <t>// Initialize FInternationalization before we bind to OnCultureChanged, otherwise we can accidentally initialize</t>
+  </si>
+  <si>
+    <t>// twice since FInternationalization::Initialize sets the culture.</t>
+  </si>
+  <si>
+    <t>FInternationalization::Get();</t>
+  </si>
+  <si>
+    <t>FInternationalization::Get().OnCultureChanged().AddRaw(&amp;FTextLocalizationManager::Get(), &amp;FTextLocalizationManager::OnCultureChanged);</t>
+  </si>
+  <si>
+    <t>监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FInternationalization</t>
+  </si>
+  <si>
+    <t>SetCurrentLanguage</t>
+  </si>
+  <si>
+    <t>SetCurrentCulture</t>
+  </si>
+  <si>
+    <t>SetCurrentLanguageAndLocale</t>
+  </si>
+  <si>
+    <t>都会触发BroadcastCultureChanged();然后回调到FTextLocalizationManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextLocalizationManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLocalizationResourceTextSource</t>
+  </si>
+  <si>
+    <t>里面会加载所有的新平台的文字？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPolyglotTextSource</t>
+  </si>
+  <si>
+    <t>啥意思？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +312,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -168,6 +356,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +641,7 @@
   <dimension ref="B5:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,15 +718,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E1F3CD-49D0-4513-9B5B-6011D41AAC9F}">
-  <dimension ref="B5:D14"/>
+  <dimension ref="A2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -544,16 +739,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -561,4 +873,187 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593A832-9C2B-4ABD-94EB-51134FF59B8A}">
+  <dimension ref="B3:S54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC872B-C441-49D8-9F6F-D86C0F0FA9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD80E694-06F3-491D-A603-926D0CB8F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
     <sheet name="多语言实现方式" sheetId="2" r:id="rId2"/>
     <sheet name="实现原理" sheetId="3" r:id="rId3"/>
+    <sheet name="资源多语言" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -270,6 +271,111 @@
   <si>
     <t>啥意思？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPackageLocalizationCultureCache::ConditionalUpdateCache_NoLock()</t>
+  </si>
+  <si>
+    <t>if (PendingSourceRootPathsToSearch.Num() == 0)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (!IsInGameThread())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogPackageLocalizationCache, Warning, TEXT("Skipping the cache update for %d pending package path(s) due to a cache request from a non-game thread. Some localized packages may be missed for this query."), PendingSourceRootPathsToSearch.Num());</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("FPackageLocalizationCultureCache::ConditionalUpdateCache_NoLock");</t>
+  </si>
+  <si>
+    <t>const double CacheStartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>for (const FString&amp; SourceRootPath : PendingSourceRootPathsToSearch)</t>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt;&amp; LocalizedRootPaths = SourcePathsToLocalizedPaths.FindOrAdd(SourceRootPath);</t>
+  </si>
+  <si>
+    <t>for (const FString&amp; PrioritizedCultureName : PrioritizedCultureNames)</t>
+  </si>
+  <si>
+    <t>const FString LocalizedRootPath = SourceRootPath / TEXT("L10N") / PrioritizedCultureName;</t>
+  </si>
+  <si>
+    <t>if (!LocalizedRootPaths.Contains(LocalizedRootPath))</t>
+  </si>
+  <si>
+    <t>LocalizedRootPaths.Add(LocalizedRootPath);</t>
+  </si>
+  <si>
+    <t>OwnerCache-&gt;FindLocalizedPackages(SourceRootPath, LocalizedRootPath, SourcePackagesToLocalizedPackages);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogPackageLocalizationCache, Log, TEXT("Processed %d localized package path(s) for %d prioritized culture(s) in %0.6f seconds"), PendingSourceRootPathsToSearch.Num(), PrioritizedCultureNames.Num(), FPlatformTime::Seconds() - CacheStartTime);</t>
+  </si>
+  <si>
+    <t>PendingSourceRootPathsToSearch.Empty();</t>
+  </si>
+  <si>
+    <t>void FEnginePackageLocalizationCache::FindLocalizedPackages(const FString&amp; InSourceRoot, const FString&amp; InLocalizedRoot, TMap&lt;FName, TArray&lt;FName&gt;&gt;&amp; InOutSourcePackagesToLocalizedPackages)</t>
+  </si>
+  <si>
+    <t>FAssetRegistryModule&amp; AssetRegistryModule = FModuleManager::LoadModuleChecked&lt;FAssetRegistryModule&gt;(TEXT("AssetRegistry"));</t>
+  </si>
+  <si>
+    <t>IAssetRegistry&amp; AssetRegistry = AssetRegistryModule.Get();</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>// Make sure the asset registry has the data we need</t>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; LocalizedPackagePaths;</t>
+  </si>
+  <si>
+    <t>LocalizedPackagePaths.Add(InLocalizedRoot);</t>
+  </si>
+  <si>
+    <t>// Set bIsScanningPath to avoid us processing newly added assets from this scan</t>
+  </si>
+  <si>
+    <t>TGuardValue&lt;bool&gt; SetIsScanningPath(bIsScanningPath, true);</t>
+  </si>
+  <si>
+    <t>AssetRegistry.ScanPathsSynchronous(LocalizedPackagePaths);</t>
+  </si>
+  <si>
+    <t>#endif // WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetData&gt; LocalizedAssetDataArray;</t>
+  </si>
+  <si>
+    <t>bool bIncludeOnlyOnDiskAssets = !GIsEditor;</t>
+  </si>
+  <si>
+    <t>bool bRecursive = true;</t>
+  </si>
+  <si>
+    <t>AssetRegistry.GetAssetsByPath(*InLocalizedRoot, LocalizedAssetDataArray, bRecursive, bIncludeOnlyOnDiskAssets);</t>
+  </si>
+  <si>
+    <t>for (const FAssetData&amp; LocalizedAssetData : LocalizedAssetDataArray)</t>
+  </si>
+  <si>
+    <t>const FName SourcePackageName = *FPackageName::GetSourcePackagePath(LocalizedAssetData.PackageName.ToString());</t>
+  </si>
+  <si>
+    <t>TArray&lt;FName&gt;&amp; PrioritizedLocalizedPackageNames = InOutSourcePackagesToLocalizedPackages.FindOrAdd(SourcePackageName);</t>
+  </si>
+  <si>
+    <t>PrioritizedLocalizedPackageNames.AddUnique(LocalizedAssetData.PackageName);</t>
   </si>
 </sst>
 </file>
@@ -879,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593A832-9C2B-4ABD-94EB-51134FF59B8A}">
   <dimension ref="B3:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -1056,4 +1162,291 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A2991-1C49-48A6-B0EE-EF15141FCEE1}">
+  <dimension ref="B4:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD80E694-06F3-491D-A603-926D0CB8F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B739F00-17F5-4401-BF5E-817913FDCBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
     <sheet name="多语言实现方式" sheetId="2" r:id="rId2"/>
     <sheet name="实现原理" sheetId="3" r:id="rId3"/>
     <sheet name="资源多语言" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -479,6 +480,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490D81B1-9800-4FAC-916E-F74A91EA530F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18183225" cy="9572625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A2991-1C49-48A6-B0EE-EF15141FCEE1}">
   <dimension ref="B4:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
@@ -1449,4 +1516,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8527C-10C5-4CDF-89E7-6A4C037E74B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B739F00-17F5-4401-BF5E-817913FDCBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D303A96E-0750-4391-8D1F-12A22B3F51F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="实现原理" sheetId="3" r:id="rId3"/>
     <sheet name="资源多语言" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="L10N " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -377,6 +378,30 @@
   </si>
   <si>
     <t>PrioritizedLocalizedPackageNames.AddUnique(LocalizedAssetData.PackageName);</t>
+  </si>
+  <si>
+    <t>通过standlone启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是Content下面的L10N目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就存英文版资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是中文版资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1522,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8527C-10C5-4CDF-89E7-6A4C037E74B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1531,4 +1556,46 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2395E35-62A1-499B-A4DC-A69CE520FD91}">
+  <dimension ref="B3:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D303A96E-0750-4391-8D1F-12A22B3F51F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,8 @@
     <sheet name="资源多语言" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="L10N " sheetId="6" r:id="rId6"/>
+    <sheet name="资源加载的时候重定向" sheetId="7" r:id="rId7"/>
+    <sheet name="重定向原理" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -403,11 +404,205 @@
     <t>就是中文版资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>可以看出来，重定向发生在读取UE的asset资源的时候，创建PackageLinker时候；非资源资源没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据自己当前的语言，从L10N目录下面读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为Linker.cpp里面和异步加载的创建Linker里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建packagelinker的函数里：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad* GetPackageLinker</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>UPackage*</t>
+  </si>
+  <si>
+    <t>InOuter,</t>
+  </si>
+  <si>
+    <t>const TCHAR*</t>
+  </si>
+  <si>
+    <t>InLongPackageName,</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>LoadFlags,</t>
+  </si>
+  <si>
+    <t>UPackageMap*</t>
+  </si>
+  <si>
+    <t>Sandbox,</t>
+  </si>
+  <si>
+    <t>FGuid*</t>
+  </si>
+  <si>
+    <t>CompatibleGuid,</t>
+  </si>
+  <si>
+    <t>FArchive*</t>
+  </si>
+  <si>
+    <t>InReaderOverride,</t>
+  </si>
+  <si>
+    <t>FUObjectSerializeContext** InOutLoadContext,</t>
+  </si>
+  <si>
+    <t>FLinkerLoad*</t>
+  </si>
+  <si>
+    <t>ImportLinker,</t>
+  </si>
+  <si>
+    <t>const FLinkerInstancingContext* InstancingContext</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script packages.</t>
+  </si>
+  <si>
+    <t>FString PackageNameToLoad = PackageNameToCreate;</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>非编辑器且非Script目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就解释了编辑器模式下为啥不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Allow delegates to resolve this path</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetDelegateResolvedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetLocalizedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>重定向！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script or in-memory packages.</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || InOuter-&gt;HasAnyPackageFlags(PKG_InMemoryOnly) || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage</t>
+  </si>
+  <si>
+    <t>在创建linker函数里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::CreateLinker()</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization.</t>
+  </si>
+  <si>
+    <t>if (!GIsEditor)</t>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(CreateLinker_MassagePath);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetDelegateResolvedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetLocalizedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>底层当前资源到多语言资源路径的转换方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前语言：const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPackageLocalizationUtil</t>
+  </si>
+  <si>
+    <t>static bool ConvertLocalizedToSource(const FString&amp; InLocalized, FString&amp; OutSource);</t>
+  </si>
+  <si>
+    <t>static bool ConvertSourceToLocalized(const FString&amp; InSource, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>static bool GetLocalizedRoot(const FString&amp; InPath, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameNoCache(const FName InSourcePackageName, const FString&amp; InCultureName) const</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath)</t>
+  </si>
+  <si>
+    <t>调用FindLocalizedPackageName</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>内部获取当前语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageName(const FName InSourcePackageName)</t>
+  </si>
+  <si>
+    <t>const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return FindLocalizedPackageNameNoCache(InSourcePackageName, CurrentCultureName);</t>
+  </si>
+  <si>
+    <t>指定语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameForCulture(const FName InSourcePackageName, const FString&amp; InCultureName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -915,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E1F3CD-49D0-4513-9B5B-6011D41AAC9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1074,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593A832-9C2B-4ABD-94EB-51134FF59B8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S54"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1257,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A2991-1C49-48A6-B0EE-EF15141FCEE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -1544,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8527C-10C5-4CDF-89E7-6A4C037E74B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
@@ -1559,10 +1754,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2395E35-62A1-499B-A4DC-A69CE520FD91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -1598,4 +1793,399 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:U59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C49" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -597,6 +597,14 @@
   </si>
   <si>
     <t>FName FPackageLocalizationManager::FindLocalizedPackageNameForCulture(const FName InSourcePackageName, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>内部会判断多语言版本的资源存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1799,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1961,11 +1969,17 @@
       <c r="R30" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="T30" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>19</v>
       </c>
+      <c r="T31" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
@@ -2005,10 +2019,16 @@
       <c r="R41" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="T41" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>19</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -2091,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D29"/>
+  <dimension ref="B4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,52 +2154,58 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P17" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P18" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D26" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>166</v>
       </c>

--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
   <si>
     <t>获取平台/OS的当前语言。</t>
   </si>
@@ -596,14 +596,67 @@
     <t>指定语言</t>
   </si>
   <si>
+    <t>内部会判断多语言版本的资源存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FName FPackageLocalizationManager::FindLocalizedPackageNameForCulture(const FName InSourcePackageName, const FString&amp; InCultureName)</t>
-  </si>
-  <si>
-    <t>内部会判断多语言版本的资源存在不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return FindLocalizedPackageNameNoCache(InSourcePackageName, InCultureName);</t>
+  </si>
+  <si>
+    <t>由缓存的话调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无缓存调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return ActiveCache-&gt;FindLocalizedPackageNameForCulture(InSourcePackageName, InCultureName);</t>
+  </si>
+  <si>
+    <t>无缓存实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InSourcePackageName是资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString PackageNameRoot;</t>
+  </si>
+  <si>
+    <t>FString PackageNameSubPath;</t>
+  </si>
+  <si>
+    <t>通过资源名字获取资源的根目录和子目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TArray&lt;FString&gt; PrioritizedCultureNames = FInternationalization::Get().GetPrioritizedCultureNames(InCultureName);</t>
+  </si>
+  <si>
+    <t>const FString LocalizedPackageName = PackageNameRoot / TEXT("L10N") / PrioritizedCultureName / PackageNameSubPath;</t>
+  </si>
+  <si>
+    <t>if (FPackageName::DoesPackageExist(LocalizedPackageName))</t>
+  </si>
+  <si>
+    <t>return *LocalizedPackageName;</t>
+  </si>
+  <si>
+    <t>挨个看对应的多语言版本下是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个新目录的拼接方式，在L10N目录对应的语言目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -1463,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
@@ -1750,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1807,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +2023,7 @@
         <v>139</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
@@ -1978,7 +2031,7 @@
         <v>19</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -2020,7 +2073,7 @@
         <v>139</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -2028,7 +2081,7 @@
         <v>19</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -2111,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P29"/>
+  <dimension ref="B4:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2212,7 @@
         <v>158</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
@@ -2167,7 +2220,7 @@
         <v>159</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
@@ -2207,11 +2260,113 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D30" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D32" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D40" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D45" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_Localization_Dashboard.xlsx
+++ b/doc/ue_Localization_Dashboard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F69930-4CBB-4B5B-BE0D-EAE7A935FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="多语言配置" sheetId="1" r:id="rId1"/>
@@ -689,9 +688,6 @@
     <t>// InitEngineTextLocalization loads Paks, needs Oodle to be setup before here</t>
   </si>
   <si>
-    <t>InitEngineTextLocalization();</t>
-  </si>
-  <si>
     <t>注意，最终的多语言文本也存在于FTextLocalizationManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,9 +738,6 @@
   <si>
     <t>非编辑器模式下</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginInitGameTextLocalization();</t>
   </si>
   <si>
     <t>这里区分了编辑器和非编辑器</t>
@@ -809,11 +802,19 @@
     <t>启动时初始化流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>InitEngineTextLocalization();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginInitGameTextLocalization();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1330,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1428,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1653,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1765,7 +1766,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D28" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
@@ -1778,7 +1779,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>21</v>
@@ -1805,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
@@ -1826,14 +1827,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
@@ -1889,18 +1890,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA0B1CB-A298-418F-87F9-869F56B3293E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -1909,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -1918,12 +1919,12 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -1953,7 +1954,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
@@ -1963,12 +1964,12 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F19" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
@@ -1978,22 +1979,22 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O21" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D22" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F25" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
@@ -2003,37 +2004,37 @@
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D32" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
@@ -2043,7 +2044,7 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.2">
@@ -2053,20 +2054,20 @@
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D43" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
+        <v>206</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2077,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01430EDF-E4A2-452A-B72B-6F03C7AC4899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2295,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2597,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
